--- a/renewable.xlsx
+++ b/renewable.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BL3"/>
+  <dimension ref="A1:BJ3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:64">
+    <row r="1" spans="1:62">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -556,14 +556,8 @@
       <c r="BJ1" s="1">
         <v>60</v>
       </c>
-      <c r="BK1" s="1">
-        <v>61</v>
-      </c>
-      <c r="BL1" s="1">
-        <v>62</v>
-      </c>
     </row>
-    <row r="2" spans="1:64">
+    <row r="2" spans="1:62">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -571,13 +565,13 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D2">
         <v>7</v>
       </c>
       <c r="E2">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F2">
         <v>13</v>
@@ -589,55 +583,55 @@
         <v>13</v>
       </c>
       <c r="I2">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J2">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="K2">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="L2">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="M2">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="N2">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="O2">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="U2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="V2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="X2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Y2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -646,25 +640,25 @@
         <v>0</v>
       </c>
       <c r="AB2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AD2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AE2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AF2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AG2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AH2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AI2">
         <v>0</v>
@@ -739,10 +733,10 @@
         <v>0</v>
       </c>
       <c r="BG2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="BH2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="BI2">
         <v>0</v>
@@ -750,187 +744,181 @@
       <c r="BJ2">
         <v>0</v>
       </c>
-      <c r="BK2">
-        <v>0</v>
-      </c>
-      <c r="BL2">
-        <v>0</v>
-      </c>
     </row>
-    <row r="3" spans="1:64">
+    <row r="3" spans="1:62">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F3">
+        <v>7</v>
+      </c>
+      <c r="G3">
+        <v>7</v>
+      </c>
+      <c r="H3">
+        <v>7</v>
+      </c>
+      <c r="I3">
+        <v>7</v>
+      </c>
+      <c r="J3">
+        <v>3</v>
+      </c>
+      <c r="K3">
+        <v>3</v>
+      </c>
+      <c r="L3">
+        <v>3</v>
+      </c>
+      <c r="M3">
+        <v>3</v>
+      </c>
+      <c r="N3">
+        <v>3</v>
+      </c>
+      <c r="O3">
         <v>8</v>
       </c>
-      <c r="G3">
+      <c r="P3">
         <v>8</v>
       </c>
-      <c r="H3">
+      <c r="Q3">
         <v>8</v>
       </c>
-      <c r="I3">
+      <c r="R3">
         <v>8</v>
       </c>
-      <c r="J3">
-        <v>7</v>
-      </c>
-      <c r="K3">
-        <v>7</v>
-      </c>
-      <c r="L3">
-        <v>7</v>
-      </c>
-      <c r="M3">
-        <v>7</v>
-      </c>
-      <c r="N3">
-        <v>7</v>
-      </c>
-      <c r="O3">
-        <v>7</v>
-      </c>
-      <c r="P3">
-        <v>7</v>
-      </c>
-      <c r="Q3">
-        <v>7</v>
-      </c>
-      <c r="R3">
-        <v>4</v>
-      </c>
       <c r="S3">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="T3">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="U3">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="V3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="X3">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="Y3">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="Z3">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AA3">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AB3">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AC3">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AD3">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AE3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AF3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AG3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AH3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AI3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AJ3">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AL3">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AM3">
+        <v>3</v>
+      </c>
+      <c r="AN3">
+        <v>3</v>
+      </c>
+      <c r="AO3">
+        <v>3</v>
+      </c>
+      <c r="AP3">
+        <v>3</v>
+      </c>
+      <c r="AQ3">
+        <v>3</v>
+      </c>
+      <c r="AR3">
+        <v>3</v>
+      </c>
+      <c r="AS3">
         <v>2</v>
       </c>
-      <c r="AN3">
+      <c r="AT3">
         <v>2</v>
       </c>
-      <c r="AO3">
+      <c r="AU3">
         <v>2</v>
       </c>
-      <c r="AP3">
-        <v>2</v>
-      </c>
-      <c r="AQ3">
-        <v>2</v>
-      </c>
-      <c r="AR3">
-        <v>2</v>
-      </c>
-      <c r="AS3">
-        <v>0</v>
-      </c>
-      <c r="AT3">
-        <v>0</v>
-      </c>
-      <c r="AU3">
-        <v>1</v>
-      </c>
       <c r="AV3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AX3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AY3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AZ3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BA3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BB3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BC3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BD3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BE3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BF3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BG3">
         <v>0</v>
@@ -942,12 +930,6 @@
         <v>0</v>
       </c>
       <c r="BJ3">
-        <v>0</v>
-      </c>
-      <c r="BK3">
-        <v>0</v>
-      </c>
-      <c r="BL3">
         <v>0</v>
       </c>
     </row>
